--- a/genshin/433986709887940425_2020-09-12_12-10-05.xlsx
+++ b/genshin/433986709887940425_2020-09-12_12-10-05.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:42:05</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.11255787037</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-09-18 18:07:04</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44092.7549074074</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -693,10 +705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-15 21:19:10</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44089.88831018518</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -760,10 +770,8 @@
           <t>3491728479</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-14 17:07:52</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44088.7137962963</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -827,10 +835,8 @@
           <t>3491726986</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-14 17:06:07</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44088.71258101852</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -894,10 +900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-14 03:21:37</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44088.14001157408</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -973,10 +977,8 @@
           <t>3483150505</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-13 17:11:35</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44087.71637731481</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1040,10 +1042,8 @@
           <t>3488388641</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-13 17:09:54</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44087.71520833333</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1107,10 +1107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-13 09:23:46</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44087.39150462963</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1174,10 +1172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-13 06:14:19</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44087.25994212963</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1241,10 +1237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-13 04:14:55</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44087.17702546297</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1312,10 +1306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-13 01:07:56</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44087.04717592592</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1379,10 +1371,8 @@
           <t>3483195252</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:56:14</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44086.99738425926</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1458,10 +1448,8 @@
           <t>3483167116</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:55:35</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44086.99693287037</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1529,10 +1517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:54:47</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44086.99637731481</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1604,10 +1590,8 @@
           <t>3485164472</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:05:17</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44086.87866898148</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1683,10 +1667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:53:11</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44086.8702662037</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1746,10 +1728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:14:36</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44086.84347222222</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1817,10 +1797,8 @@
           <t>3484939742</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:14:03</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44086.84309027778</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1896,10 +1874,8 @@
           <t>3484822097</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:44:34</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44086.82261574074</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1967,10 +1943,8 @@
           <t>3484784710</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:37:23</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44086.81762731481</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2042,10 +2016,8 @@
           <t>3483782036</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:28:19</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44086.81133101852</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2113,10 +2085,8 @@
           <t>3484695956</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:15:10</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44086.80219907407</v>
       </c>
       <c r="I24" t="n">
         <v>2</v>
@@ -2184,10 +2154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-12 18:58:05</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44086.79033564815</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2251,10 +2219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-12 18:56:25</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44086.78917824074</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2318,10 +2284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-12 18:16:53</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44086.76172453703</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2381,10 +2345,8 @@
           <t>3484427012</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-12 18:14:33</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44086.76010416666</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2452,10 +2414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-12 18:05:14</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44086.75363425926</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2523,10 +2483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:46:11</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44086.74040509259</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2590,10 +2548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:45:44</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44086.74009259259</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2669,10 +2625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:40:45</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44086.73663194444</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2744,10 +2698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:34:49</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44086.73251157408</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2815,10 +2767,8 @@
           <t>3483782036</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:32:04</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44086.73060185185</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2886,10 +2836,8 @@
           <t>3483782036</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:27:41</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44086.72755787037</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2957,10 +2905,8 @@
           <t>3484226687</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:23:03</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44086.72434027777</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3028,10 +2974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:18:29</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44086.72116898148</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3103,10 +3047,8 @@
           <t>3484196484</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:15:01</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44086.71876157408</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3170,10 +3112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:06:26</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44086.71280092592</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3245,10 +3185,8 @@
           <t>3484161996</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:05:54</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44086.71243055556</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3320,10 +3258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:04:57</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44086.71177083333</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3391,10 +3327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:02:18</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44086.70993055555</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3462,10 +3396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:58:39</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44086.70739583333</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3533,10 +3465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:58:16</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44086.70712962963</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3604,10 +3534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:57:40</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44086.70671296296</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3679,10 +3607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:57:16</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44086.70643518519</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3750,10 +3676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:56:29</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44086.7058912037</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3821,10 +3745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:54:14</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44086.7043287037</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3892,10 +3814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:53:34</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44086.70386574074</v>
       </c>
       <c r="I49" t="n">
         <v>2</v>
@@ -3959,10 +3879,8 @@
           <t>3484112957</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:51:51</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44086.70267361111</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4026,10 +3944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:47:52</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44086.6999074074</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4093,10 +4009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:41:49</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44086.69570601852</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4164,10 +4078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:39:26</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44086.69405092593</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4231,10 +4143,8 @@
           <t>3484051164</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:32:39</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44086.68934027778</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4306,10 +4216,8 @@
           <t>3484032221</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:29:06</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44086.686875</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4381,10 +4289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:23:53</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44086.68325231481</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4452,10 +4358,8 @@
           <t>3483983289</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:23:33</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44086.68302083333</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4531,10 +4435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:18:02</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44086.67918981481</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4602,10 +4504,8 @@
           <t>3483983289</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:15:08</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44086.67717592593</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4681,10 +4581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:15:06</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44086.67715277777</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4748,10 +4646,8 @@
           <t>3483938745</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:01:35</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44086.6677662037</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4819,10 +4715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:55:48</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44086.66375</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4886,10 +4780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:50:20</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44086.6599537037</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -4953,10 +4845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:47:59</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44086.65832175926</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5024,10 +4914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:42:48</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44086.65472222222</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5091,10 +4979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:41:55</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44086.6541087963</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5166,10 +5052,8 @@
           <t>3483880323</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:40:48</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44086.65333333334</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5245,10 +5129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:21:36</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44086.64</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5320,10 +5202,8 @@
           <t>3483775148</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:21:36</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44086.64</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5399,10 +5279,8 @@
           <t>3483724067</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:17:11</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44086.63693287037</v>
       </c>
       <c r="I70" t="n">
         <v>2</v>
@@ -5474,10 +5352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:13:24</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44086.63430555556</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5545,10 +5421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:12:10</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44086.63344907408</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5616,10 +5490,8 @@
           <t>3483782036</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:11:14</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44086.63280092592</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5687,10 +5559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:11:05</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44086.63269675926</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5758,10 +5628,8 @@
           <t>3483769756</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:09:08</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44086.63134259259</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5825,10 +5693,8 @@
           <t>3483775148</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:07:34</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44086.63025462963</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5904,10 +5770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:04:51</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44086.62836805556</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -5975,10 +5839,8 @@
           <t>3483743161</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:00:25</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44086.62528935185</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6042,10 +5904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:00:21</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44086.62524305555</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6109,10 +5969,8 @@
           <t>3483195252</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:58:50</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44086.62418981481</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6190,10 +6048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:55:30</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44086.621875</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6265,10 +6121,8 @@
           <t>3483724067</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:54:14</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44086.62099537037</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6332,10 +6186,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:51:06</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44086.61881944445</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6403,10 +6255,8 @@
           <t>3483709564</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:49:56</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44086.61800925926</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6466,10 +6316,8 @@
           <t>3483710391</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:48:05</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44086.61672453704</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6537,10 +6385,8 @@
           <t>3483508632</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:42:39</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44086.61295138889</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6608,10 +6454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:41:42</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44086.61229166666</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6679,10 +6523,8 @@
           <t>3483674083</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:37:32</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44086.60939814815</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6750,10 +6592,8 @@
           <t>3483662213</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:33:30</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44086.60659722222</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6829,10 +6669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:33:10</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44086.60636574074</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6908,10 +6746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:31:33</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44086.60524305556</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -6983,10 +6819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:30:08</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44086.60425925926</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7050,10 +6884,8 @@
           <t>3483650765</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:29:25</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44086.60376157407</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7117,10 +6949,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:29:03</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44086.60350694445</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7196,10 +7026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:28:28</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44086.60310185186</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7271,10 +7099,8 @@
           <t>3483636467</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:25:16</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44086.60087962963</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7346,10 +7172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:22:55</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44086.59924768518</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7417,10 +7241,8 @@
           <t>3483623898</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:22:45</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44086.59913194444</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7489,10 +7311,8 @@
           <t>3483153818</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:21:41</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44086.5983912037</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7561,10 +7381,8 @@
           <t>3483626683</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:20:41</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44086.59769675926</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7636,10 +7454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:20:06</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44086.59729166667</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7703,10 +7519,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:19:43</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44086.59702546296</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7774,10 +7588,8 @@
           <t>3483616994</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:19:12</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44086.59666666666</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7845,10 +7657,8 @@
           <t>3483173918</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:17:50</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44086.59571759259</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7924,10 +7734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:16:56</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44086.59509259259</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -7995,10 +7803,8 @@
           <t>3483246670</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:15:55</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44086.59438657408</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8062,10 +7868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:15:01</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44086.59376157408</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8131,10 +7935,8 @@
           <t>3483593880</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:13:05</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44086.59241898148</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8202,10 +8004,8 @@
           <t>3483164233</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:11:41</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44086.59144675926</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8277,10 +8077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:10:47</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44086.59082175926</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8348,10 +8146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:09:47</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44086.59012731481</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8415,10 +8211,8 @@
           <t>3483586303</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:09:23</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44086.58984953703</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8490,10 +8284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:09:20</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44086.58981481481</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8557,10 +8349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:09:16</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44086.58976851852</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8632,10 +8422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:07:24</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44086.58847222223</v>
       </c>
       <c r="I115" t="n">
         <v>4</v>
@@ -8707,10 +8495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:05:58</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44086.58747685186</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8786,10 +8572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:01:47</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44086.58457175926</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8861,10 +8645,8 @@
           <t>3483557582</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:01:38</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44086.58446759259</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8932,10 +8714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:00:01</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44086.58334490741</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -8995,10 +8775,8 @@
           <t>3483172673</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:58:49</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44086.58251157407</v>
       </c>
       <c r="I120" t="n">
         <v>2</v>
@@ -9074,10 +8852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:57:56</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44086.58189814815</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9147,10 +8923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:54:45</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44086.5796875</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9218,10 +8992,8 @@
           <t>3483529045</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:54:16</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44086.57935185185</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9293,10 +9065,8 @@
           <t>3483537100</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:53:46</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44086.57900462963</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9360,10 +9130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:50:40</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44086.57685185185</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9432,10 +9200,8 @@
           <t>3483379407</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:50:37</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44086.57681712963</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9507,10 +9273,8 @@
           <t>3483514336</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:50:10</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44086.57650462963</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9586,10 +9350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:50:02</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44086.57641203704</v>
       </c>
       <c r="I128" t="n">
         <v>3</v>
@@ -9653,10 +9415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:49:21</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44086.5759375</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9724,10 +9484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:49:20</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44086.57592592593</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9797,10 +9555,8 @@
           <t>3483510778</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:47:14</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44086.5744675926</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9876,10 +9632,8 @@
           <t>3483508632</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:46:36</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44086.57402777778</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -9955,10 +9709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:46:30</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44086.57395833333</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10034,10 +9786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:44:49</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44086.57278935185</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10101,10 +9851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:41:28</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44086.57046296296</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10178,10 +9926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:41:00</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44086.57013888889</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10253,10 +9999,8 @@
           <t>3483320902</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:39:19</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44086.56896990741</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10328,10 +10072,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:39:15</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44086.56892361111</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10401,10 +10143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:37:10</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44086.56747685185</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10472,10 +10212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:35:42</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44086.56645833333</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10543,10 +10281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:34:04</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44086.56532407407</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10610,10 +10346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:33:24</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44086.56486111111</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10681,10 +10415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:32:54</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44086.56451388889</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10748,10 +10480,8 @@
           <t>3483462036</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:32:49</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44086.56445601852</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10827,10 +10557,8 @@
           <t>3483461423</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:32:21</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44086.56413194445</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -10898,10 +10626,8 @@
           <t>3483320902</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:31:49</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44086.56376157407</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -10961,10 +10687,8 @@
           <t>3483460465</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:31:34</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44086.56358796296</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11036,10 +10760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:30:00</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44086.5625</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11107,10 +10829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:29:14</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44086.56196759259</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11187,10 +10907,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:27:17</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44086.56061342593</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11254,10 +10972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:25:56</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44086.55967592593</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11325,10 +11041,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:22:52</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44086.5575462963</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11397,10 +11111,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:21:39</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44086.55670138889</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11476,10 +11188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:19:48</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44086.55541666667</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11543,10 +11253,8 @@
           <t>3483406528</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:19:05</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44086.55491898148</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11622,10 +11330,8 @@
           <t>3483195252</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:18:04</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44086.55421296296</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11701,10 +11407,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:17:57</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44086.55413194445</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11773,10 +11477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:17:33</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44086.55385416667</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11848,10 +11550,8 @@
           <t>3483173918</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:17:24</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44086.55375</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11927,10 +11627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:17:18</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44086.55368055555</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12003,10 +11701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:16:52</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44086.55337962963</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12074,10 +11770,8 @@
           <t>3483401211</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:16:17</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44086.55297453704</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -12153,10 +11847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:16:10</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44086.55289351852</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12220,10 +11912,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:15:28</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44086.55240740741</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12287,10 +11977,8 @@
           <t>3483338036</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:13:26</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44086.55099537037</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12366,10 +12054,8 @@
           <t>3483379407</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:13:25</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44086.5509837963</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12433,10 +12119,8 @@
           <t>3483248169</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:12:49</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44086.55056712963</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12512,10 +12196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:12:30</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44086.55034722222</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12583,10 +12265,8 @@
           <t>3483381686</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:12:10</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44086.55011574074</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12658,10 +12338,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:12:03</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44086.55003472222</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12730,10 +12408,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:11:27</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44086.54961805556</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -12802,10 +12478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:11:23</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44086.54957175926</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12869,10 +12543,8 @@
           <t>3483374460</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:11:00</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44086.54930555556</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12940,10 +12612,8 @@
           <t>3483313457</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:10:40</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44086.54907407407</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13019,10 +12689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:10:15</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44086.54878472222</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13098,10 +12766,8 @@
           <t>3483371810</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:08:55</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44086.54785879629</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13169,10 +12835,8 @@
           <t>3483349150</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:08:00</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44086.54722222222</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13248,10 +12912,8 @@
           <t>3483361617</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:07:13</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44086.54667824074</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13327,10 +12989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:07:12</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44086.54666666667</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13402,10 +13062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:06:59</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44086.54651620371</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13469,10 +13127,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:06:52</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44086.54643518518</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13536,10 +13192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:05:40</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44086.54560185185</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13611,10 +13265,8 @@
           <t>3483349150</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:05:13</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44086.54528935185</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13683,10 +13335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:04:26</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44086.54474537037</v>
       </c>
       <c r="I184" t="n">
         <v>3</v>
@@ -13762,10 +13412,8 @@
           <t>3483350721</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:03:54</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44086.544375</v>
       </c>
       <c r="I185" t="n">
         <v>2</v>
@@ -13829,10 +13477,8 @@
           <t>3483295047</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:03:42</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44086.54423611111</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13904,10 +13550,8 @@
           <t>3483347182</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:03:40</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44086.54421296297</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -13979,10 +13623,8 @@
           <t>3483344903</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:03:33</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44086.54413194444</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14046,10 +13688,8 @@
           <t>3483346802</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:03:21</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44086.54399305556</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14118,10 +13758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:03:19</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44086.5439699074</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14189,10 +13827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:02:32</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44086.54342592593</v>
       </c>
       <c r="I191" t="n">
         <v>2</v>
@@ -14268,10 +13904,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:02:31</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44086.54341435185</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14340,10 +13974,8 @@
           <t>3483345576</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:02:23</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44086.54332175926</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14419,10 +14051,8 @@
           <t>3483338036</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:01:53</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44086.54297453703</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14490,10 +14120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:01:40</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44086.54282407407</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14561,10 +14189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:01:23</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44086.54262731481</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14641,10 +14267,8 @@
           <t>3483334191</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:01:17</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44086.54255787037</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14720,10 +14344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:01:03</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44086.54239583333</v>
       </c>
       <c r="I198" t="n">
         <v>2</v>
@@ -14791,10 +14413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:00:56</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44086.54231481482</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14858,10 +14478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:00:50</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44086.54224537037</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -14925,10 +14543,8 @@
           <t>3483336531</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:00:46</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44086.54219907407</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15000,10 +14616,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:00:43</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44086.54216435185</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15067,10 +14681,8 @@
           <t>3483263064</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:00:06</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44086.54173611111</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15147,10 +14759,8 @@
           <t>3483335126</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:59:41</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44086.54144675926</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15214,10 +14824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:58:47</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44086.54082175926</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15293,10 +14901,8 @@
           <t>3483327286</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:57:47</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44086.54012731482</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15368,10 +14974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:57:27</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44086.53989583333</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15431,10 +15035,8 @@
           <t>3483321527</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:57:00</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44086.53958333333</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15506,10 +15108,8 @@
           <t>3483320902</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:56:33</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44086.53927083333</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15581,10 +15181,8 @@
           <t>3483313457</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:56:24</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44086.53916666667</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15648,10 +15246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:56:09</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44086.53899305555</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15719,10 +15315,8 @@
           <t>3483314838</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:55:58</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44086.53886574074</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15791,10 +15385,8 @@
           <t>3483314779</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:55:56</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44086.53884259259</v>
       </c>
       <c r="I213" t="n">
         <v>5</v>
@@ -15858,10 +15450,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:55:52</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44086.5387962963</v>
       </c>
       <c r="I214" t="n">
         <v>2</v>
@@ -15930,10 +15520,8 @@
           <t>3483263064</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:55:13</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44086.53834490741</v>
       </c>
       <c r="I215" t="n">
         <v>5</v>
@@ -16005,10 +15593,8 @@
           <t>3483313457</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:54:57</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44086.53815972222</v>
       </c>
       <c r="I216" t="n">
         <v>12</v>
@@ -16080,10 +15666,8 @@
           <t>3483308139</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:54:33</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44086.53788194444</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16155,10 +15739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:54:19</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44086.53771990741</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16234,10 +15816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:54:02</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44086.53752314814</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16313,10 +15893,8 @@
           <t>3483307314</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:53:57</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44086.53746527778</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16392,10 +15970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:53:33</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44086.5371875</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16464,10 +16040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:53:12</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44086.53694444444</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16531,10 +16105,8 @@
           <t>3483272895</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:52:35</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44086.53651620371</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16610,10 +16182,8 @@
           <t>3483305483</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:52:34</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44086.53650462963</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16685,10 +16255,8 @@
           <t>3483305383</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:52:30</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44086.53645833334</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16760,10 +16328,8 @@
           <t>3483294547</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:51:53</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44086.53603009259</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -16827,10 +16393,8 @@
           <t>3483301734</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:51:28</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44086.53574074074</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16898,10 +16462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:51:21</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44086.53565972222</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16970,10 +16532,8 @@
           <t>3483263064</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:50:13</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44086.53487268519</v>
       </c>
       <c r="I229" t="n">
         <v>2</v>
@@ -17050,10 +16610,8 @@
           <t>3483289679</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:49:53</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44086.5346412037</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17129,10 +16687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:48:49</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44086.53390046296</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17208,10 +16764,8 @@
           <t>3483295047</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:48:43</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44086.53383101852</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17287,10 +16841,8 @@
           <t>3483284399</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:48:14</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44086.53349537037</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17362,10 +16914,8 @@
           <t>3483246670</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:47:23</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44086.53290509259</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17437,10 +16987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:46:54</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44086.53256944445</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17504,10 +17052,8 @@
           <t>3483267826</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:46:54</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44086.53256944445</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17583,10 +17129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:46:52</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44086.53254629629</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17654,10 +17198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:46:35</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44086.53234953704</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17733,10 +17275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:46:27</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44086.53225694445</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17800,10 +17340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:46:12</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44086.53208333333</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17875,10 +17413,8 @@
           <t>3483276821</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:46:10</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44086.53206018519</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17946,10 +17482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:45:58</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44086.53192129629</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18009,10 +17543,8 @@
           <t>3483246670</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:45:34</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44086.53164351852</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18084,10 +17616,8 @@
           <t>3483280447</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:45:14</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44086.53141203704</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18157,10 +17687,8 @@
           <t>3483272895</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:45:07</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44086.53133101852</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18224,10 +17752,8 @@
           <t>3483153818</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:45:03</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44086.53128472222</v>
       </c>
       <c r="I246" t="n">
         <v>10</v>
@@ -18303,10 +17829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:45:00</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44086.53125</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18378,10 +17902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:44:53</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44086.53116898148</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18445,10 +17967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:44:49</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44086.53112268518</v>
       </c>
       <c r="I249" t="n">
         <v>11</v>
@@ -18508,10 +18028,8 @@
           <t>3483246670</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:44:44</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44086.53106481482</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18587,10 +18105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:44:43</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44086.53105324074</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18662,10 +18178,8 @@
           <t>3483272958</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:44:40</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44086.53101851852</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18737,10 +18251,8 @@
           <t>3483272895</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:44:36</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44086.53097222222</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18812,10 +18324,8 @@
           <t>3483153818</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:44:33</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44086.5309375</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18885,10 +18395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:43:53</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44086.53047453704</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18956,10 +18464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:43:41</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44086.53033564815</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -19023,10 +18529,8 @@
           <t>3483263064</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:43:27</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44086.53017361111</v>
       </c>
       <c r="I257" t="n">
         <v>4</v>
@@ -19090,10 +18594,8 @@
           <t>3483267826</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:43:14</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44086.53002314815</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19161,10 +18663,8 @@
           <t>3483266389</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:42:12</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44086.52930555555</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19232,10 +18732,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:42:01</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44086.52917824074</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19299,10 +18797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:41:48</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44086.52902777777</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19378,10 +18874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:41:31</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44086.52883101852</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19453,10 +18947,8 @@
           <t>3483260325</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:41:25</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44086.52876157407</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19524,10 +19016,8 @@
           <t>3483246670</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:41:20</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44086.52870370371</v>
       </c>
       <c r="I264" t="n">
         <v>2</v>
@@ -19591,10 +19081,8 @@
           <t>3483249259</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:40:40</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44086.52824074074</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19658,10 +19146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:40:23</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44086.52804398148</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -19733,10 +19219,8 @@
           <t>3483248169</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:39:50</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44086.52766203704</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19800,10 +19284,8 @@
           <t>3483246670</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:39:46</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44086.52761574074</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19879,10 +19361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:39:44</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44086.5275925926</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -19958,10 +19438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:39:43</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44086.52758101852</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20033,10 +19511,8 @@
           <t>3483246670</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:38:40</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44086.52685185185</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20100,10 +19576,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:38:16</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44086.52657407407</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20167,10 +19641,8 @@
           <t>3483244481</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:38:09</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44086.52649305556</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20234,10 +19706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:37:55</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44086.52633101852</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20313,10 +19783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:37:53</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44086.52630787037</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20384,10 +19852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:37:53</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44086.52630787037</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20452,10 +19918,8 @@
           <t>3483250301</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:37:43</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44086.52619212963</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20531,10 +19995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:37:30</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44086.52604166666</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20606,10 +20068,8 @@
           <t>3483173918</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:37:29</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44086.52603009259</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20673,10 +20133,8 @@
           <t>3483234982</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:37:26</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44086.52599537037</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20748,10 +20206,8 @@
           <t>3483243538</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:37:24</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44086.52597222223</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20830,10 +20286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:37:15</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44086.52586805556</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20905,10 +20359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:37:02</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44086.52571759259</v>
       </c>
       <c r="I283" t="n">
         <v>2</v>
@@ -20984,10 +20436,8 @@
           <t>3483239124</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:36:53</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44086.52561342593</v>
       </c>
       <c r="I284" t="n">
         <v>2</v>
@@ -21056,10 +20506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:36:17</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44086.52519675926</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21135,10 +20583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:36:15</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44086.52517361111</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21210,10 +20656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:35:51</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44086.52489583333</v>
       </c>
       <c r="I287" t="n">
         <v>3</v>
@@ -21277,10 +20721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:35:11</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44086.52443287037</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21344,10 +20786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:35:02</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44086.5243287037</v>
       </c>
       <c r="I289" t="n">
         <v>1</v>
@@ -21423,10 +20863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:34:52</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44086.52421296296</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21502,10 +20940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:34:48</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44086.52416666667</v>
       </c>
       <c r="I291" t="n">
         <v>2</v>
@@ -21573,10 +21009,8 @@
           <t>3483235801</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:34:30</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44086.52395833333</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21644,10 +21078,8 @@
           <t>3483230472</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:34:08</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44086.5237037037</v>
       </c>
       <c r="I293" t="n">
         <v>11</v>
@@ -21707,10 +21139,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:33:57</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44086.52357638889</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -21778,10 +21208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:33:54</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44086.52354166667</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -21849,10 +21277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:33:36</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44086.52333333333</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21924,10 +21350,8 @@
           <t>3483228356</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:33:29</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44086.52325231482</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22003,10 +21427,8 @@
           <t>3483227995</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:33:14</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44086.52307870371</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22082,10 +21504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:33:11</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44086.52304398148</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22153,10 +21573,8 @@
           <t>3483172673</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:33:09</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44086.52302083333</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22224,10 +21642,8 @@
           <t>3483227546</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:32:53</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44086.52283564815</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22295,10 +21711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:32:51</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44086.5228125</v>
       </c>
       <c r="I302" t="n">
         <v>64</v>
@@ -22366,10 +21780,8 @@
           <t>3483174674</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:32:22</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44086.52247685185</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22445,10 +21857,8 @@
           <t>3483182563</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:31:44</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44086.52203703704</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22525,10 +21935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:31:38</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44086.52196759259</v>
       </c>
       <c r="I305" t="n">
         <v>6</v>
@@ -22605,10 +22013,8 @@
           <t>3483225506</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:31:19</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44086.52174768518</v>
       </c>
       <c r="I306" t="n">
         <v>3</v>
@@ -22680,10 +22086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:31:15</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44086.52170138889</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22759,10 +22163,8 @@
           <t>3483221144</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:31:10</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44086.52164351852</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22838,10 +22240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:31:03</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44086.5215625</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22905,10 +22305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:30:55</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44086.52146990741</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -22972,10 +22370,8 @@
           <t>3483201881</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:30:55</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44086.52146990741</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23051,10 +22447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:30:51</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44086.52142361111</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23126,10 +22520,8 @@
           <t>3483220649</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:30:46</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44086.52136574074</v>
       </c>
       <c r="I313" t="n">
         <v>3</v>
@@ -23197,10 +22589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:30:41</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44086.52130787037</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23272,10 +22662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:30:07</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44086.52091435185</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23351,10 +22739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:30:02</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44086.52085648148</v>
       </c>
       <c r="I316" t="n">
         <v>8</v>
@@ -23430,10 +22816,8 @@
           <t>3483213505</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:29:46</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44086.5206712963</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23509,10 +22893,8 @@
           <t>3483209126</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:29:39</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44086.52059027777</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -23588,10 +22970,8 @@
           <t>3483213240</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:29:33</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44086.52052083334</v>
       </c>
       <c r="I319" t="n">
         <v>1</v>
@@ -23667,10 +23047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:29:31</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44086.52049768518</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23738,10 +23116,8 @@
           <t>3483208710</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:29:22</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44086.52039351852</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -23805,10 +23181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:29:07</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44086.5202199074</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -23884,10 +23258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:29:06</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44086.52020833334</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23955,10 +23327,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:29:06</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44086.52020833334</v>
       </c>
       <c r="I324" t="n">
         <v>3</v>
@@ -24034,10 +23404,8 @@
           <t>3483207653</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:28:36</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44086.51986111111</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24105,10 +23473,8 @@
           <t>3483211953</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:28:34</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44086.51983796297</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24172,10 +23538,8 @@
           <t>3483179018</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:28:31</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44086.51980324074</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24243,10 +23607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:28:21</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44086.5196875</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24318,10 +23680,8 @@
           <t>3483202312</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:28:07</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44086.51952546297</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24389,10 +23749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:28:04</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44086.51949074074</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24460,10 +23818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:27:48</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44086.51930555556</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24539,10 +23895,8 @@
           <t>3483206540</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:27:48</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44086.51930555556</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24610,10 +23964,8 @@
           <t>3483201881</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:27:47</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44086.51929398148</v>
       </c>
       <c r="I333" t="n">
         <v>14</v>
@@ -24673,10 +24025,8 @@
           <t>3483201652</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:27:37</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44086.51917824074</v>
       </c>
       <c r="I334" t="n">
         <v>4</v>
@@ -24748,10 +24098,8 @@
           <t>3483210345</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:27:21</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44086.51899305556</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24823,10 +24171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:27:16</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44086.51893518519</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24886,10 +24232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:27:05</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44086.51880787037</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24957,10 +24301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:27:04</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44086.5187962963</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25027,10 +24369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:26:16</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44086.51824074074</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25102,10 +24442,8 @@
           <t>3483190440</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:26:14</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44086.51821759259</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25169,10 +24507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:26:12</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44086.51819444444</v>
       </c>
       <c r="I341" t="n">
         <v>1</v>
@@ -25236,10 +24572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:25:33</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44086.51774305556</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25311,10 +24645,8 @@
           <t>3483174674</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:25:31</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44086.51771990741</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25378,10 +24710,8 @@
           <t>3483182563</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:25:26</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44086.51766203704</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25457,10 +24787,8 @@
           <t>3483190440</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:25:20</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44086.51759259259</v>
       </c>
       <c r="I345" t="n">
         <v>1</v>
@@ -25536,10 +24864,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:24:58</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44086.51733796296</v>
       </c>
       <c r="I346" t="n">
         <v>5</v>
@@ -25607,10 +24933,8 @@
           <t>3483192216</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:24:33</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44086.51704861111</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -25674,10 +24998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:24:02</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44086.51668981482</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25749,10 +25071,8 @@
           <t>3483182563</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:23:57</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44086.51663194445</v>
       </c>
       <c r="I349" t="n">
         <v>3</v>
@@ -25824,10 +25144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:23:47</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44086.5165162037</v>
       </c>
       <c r="I350" t="n">
         <v>72</v>
@@ -25903,10 +25221,8 @@
           <t>3483186306</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:23:31</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44086.51633101852</v>
       </c>
       <c r="I351" t="n">
         <v>2</v>
@@ -25978,10 +25294,8 @@
           <t>3483186282</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:23:30</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44086.51631944445</v>
       </c>
       <c r="I352" t="n">
         <v>11</v>
@@ -26041,10 +25355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:23:24</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44086.51625</v>
       </c>
       <c r="I353" t="n">
         <v>2</v>
@@ -26112,10 +25424,8 @@
           <t>3483176222</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:23:22</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44086.51622685185</v>
       </c>
       <c r="I354" t="n">
         <v>2</v>
@@ -26183,10 +25493,8 @@
           <t>3483195252</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:23:21</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44086.51621527778</v>
       </c>
       <c r="I355" t="n">
         <v>20</v>
@@ -26264,10 +25572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:23:16</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44086.51615740741</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26339,10 +25645,8 @@
           <t>3483190440</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:23:15</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44086.51614583333</v>
       </c>
       <c r="I357" t="n">
         <v>22</v>
@@ -26406,10 +25710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:23:02</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44086.51599537037</v>
       </c>
       <c r="I358" t="n">
         <v>1</v>
@@ -26485,10 +25787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:22:51</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44086.51586805555</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26560,10 +25860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:22:45</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44086.51579861111</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26627,10 +25925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:22:44</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44086.51578703704</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26710,10 +26006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:22:41</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44086.51575231482</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26789,10 +26083,8 @@
           <t>3483184294</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:22:36</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44086.51569444445</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26856,10 +26148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:22:23</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44086.51554398148</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26927,10 +26217,8 @@
           <t>3483174674</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:22:18</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44086.51548611111</v>
       </c>
       <c r="I365" t="n">
         <v>2</v>
@@ -26998,10 +26286,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:22:02</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44086.51530092592</v>
       </c>
       <c r="I366" t="n">
         <v>8</v>
@@ -27077,10 +26363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:21:48</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44086.51513888889</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27152,10 +26436,8 @@
           <t>3483173918</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:21:43</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44086.51508101852</v>
       </c>
       <c r="I368" t="n">
         <v>37</v>
@@ -27231,10 +26513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:21:34</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44086.51497685185</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27299,10 +26579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:21:32</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44086.51495370371</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27370,10 +26648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:21:30</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44086.51493055555</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27441,10 +26717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:21:25</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44086.51487268518</v>
       </c>
       <c r="I372" t="n">
         <v>3</v>
@@ -27516,10 +26790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:21:22</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44086.51483796296</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27584,10 +26856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:21:21</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44086.51482638889</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27651,10 +26921,8 @@
           <t>3483182563</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:21:15</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44086.51475694445</v>
       </c>
       <c r="I375" t="n">
         <v>5</v>
@@ -27730,10 +26998,8 @@
           <t>3483164233</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:21:04</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44086.51462962963</v>
       </c>
       <c r="I376" t="n">
         <v>5</v>
@@ -27809,10 +27075,8 @@
           <t>3483172948</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:20:57</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44086.51454861111</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27876,10 +27140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:20:56</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44086.51453703704</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -27947,10 +27209,8 @@
           <t>3483172673</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:20:46</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44086.5144212963</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -28014,10 +27274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:20:22</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44086.51414351852</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28085,10 +27343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:20:21</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44086.51413194444</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28152,10 +27408,8 @@
           <t>3483176222</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:20:09</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44086.51399305555</v>
       </c>
       <c r="I382" t="n">
         <v>5</v>
@@ -28219,10 +27473,8 @@
           <t>3483171686</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:20:02</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44086.51391203704</v>
       </c>
       <c r="I383" t="n">
         <v>2</v>
@@ -28286,10 +27538,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:19:52</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44086.5137962963</v>
       </c>
       <c r="I384" t="n">
         <v>11</v>
@@ -28365,10 +27615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:19:38</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44086.51363425926</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28444,10 +27692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:19:30</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44086.51354166667</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28523,10 +27769,8 @@
           <t>3483170985</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:19:30</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44086.51354166667</v>
       </c>
       <c r="I387" t="n">
         <v>5</v>
@@ -28598,10 +27842,8 @@
           <t>3483170992</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:19:30</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44086.51354166667</v>
       </c>
       <c r="I388" t="n">
         <v>4</v>
@@ -28673,10 +27915,8 @@
           <t>3483175312</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:19:29</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44086.51353009259</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28748,10 +27988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:19:28</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44086.51351851852</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28815,10 +28053,8 @@
           <t>3483170600</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:19:13</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44086.51334490741</v>
       </c>
       <c r="I391" t="n">
         <v>5</v>
@@ -28886,10 +28122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:19:08</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44086.51328703704</v>
       </c>
       <c r="I392" t="n">
         <v>2</v>
@@ -28953,10 +28187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:19:04</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44086.51324074074</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29020,10 +28252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:18:54</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44086.513125</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -29087,10 +28317,8 @@
           <t>3483164233</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:18:42</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44086.51298611111</v>
       </c>
       <c r="I395" t="n">
         <v>40</v>
@@ -29162,10 +28390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:18:33</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44086.51288194444</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29229,10 +28455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:18:16</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44086.51268518518</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29300,10 +28524,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:18:16</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44086.51268518518</v>
       </c>
       <c r="I398" t="n">
         <v>15</v>
@@ -29375,10 +28597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:18:04</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44086.5125462963</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29454,10 +28674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:18:02</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44086.51252314815</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29521,10 +28739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:17:51</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44086.51239583334</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29592,10 +28808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:17:45</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44086.51232638889</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29673,10 +28887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:17:21</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44086.51204861111</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29745,10 +28957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:17:18</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44086.51201388889</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29816,10 +29026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:17:11</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44086.51193287037</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29879,10 +29087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:17:11</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44086.51193287037</v>
       </c>
       <c r="I406" t="n">
         <v>1</v>
@@ -29954,10 +29160,8 @@
           <t>3483167116</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:17:09</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44086.51190972222</v>
       </c>
       <c r="I407" t="n">
         <v>9</v>
@@ -30021,10 +29225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:16:58</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44086.5117824074</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30092,10 +29294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:16:49</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44086.51167824074</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30171,10 +29371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:16:48</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44086.51166666667</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30250,10 +29448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:16:45</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44086.51163194444</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30329,10 +29525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:16:44</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44086.51162037037</v>
       </c>
       <c r="I412" t="n">
         <v>33</v>
@@ -30404,10 +29598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:16:43</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44086.5116087963</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30479,10 +29671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:16:37</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44086.51153935185</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30550,10 +29740,8 @@
           <t>3483161080</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:16:14</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44086.51127314815</v>
       </c>
       <c r="I415" t="n">
         <v>5</v>
@@ -30621,10 +29809,8 @@
           <t>3483156417</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:16:00</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44086.51111111111</v>
       </c>
       <c r="I416" t="n">
         <v>10</v>
@@ -30692,10 +29878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:15:57</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44086.51107638889</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30755,10 +29939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:15:46</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44086.51094907407</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30826,10 +30008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:15:44</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44086.51092592593</v>
       </c>
       <c r="I419" t="n">
         <v>1</v>
@@ -30907,10 +30087,8 @@
           <t>3483160411</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:15:42</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44086.51090277778</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -30986,10 +30164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:15:36</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44086.51083333333</v>
       </c>
       <c r="I421" t="n">
         <v>1</v>
@@ -31059,10 +30235,8 @@
           <t>3483160015</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:15:25</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44086.51070601852</v>
       </c>
       <c r="I422" t="n">
         <v>4</v>
@@ -31130,10 +30304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:15:22</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44086.5106712963</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31205,10 +30377,8 @@
           <t>3483154712</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:15:22</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44086.5106712963</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31276,10 +30446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:15:14</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44086.5105787037</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31351,10 +30519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:15:06</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44086.51048611111</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31426,10 +30592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:14:46</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44086.51025462963</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31501,10 +30665,8 @@
           <t>3483153818</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:14:43</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44086.51021990741</v>
       </c>
       <c r="I428" t="n">
         <v>22</v>
@@ -31580,10 +30742,8 @@
           <t>3483150505</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:14:37</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44086.51015046296</v>
       </c>
       <c r="I429" t="n">
         <v>47</v>
@@ -31659,10 +30819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:14:34</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44086.51011574074</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31738,10 +30896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:14:31</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44086.51008101852</v>
       </c>
       <c r="I431" t="n">
         <v>1</v>
@@ -31817,10 +30973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:14:26</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44086.51002314815</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31888,10 +31042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:14:09</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44086.50982638889</v>
       </c>
       <c r="I433" t="n">
         <v>2</v>
@@ -31959,10 +31111,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:14:08</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44086.50981481482</v>
       </c>
       <c r="I434" t="n">
         <v>65</v>
@@ -32038,10 +31188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:13:45</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44086.50954861111</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32115,10 +31263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:13:42</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44086.50951388889</v>
       </c>
       <c r="I436" t="n">
         <v>100</v>
@@ -32194,10 +31340,8 @@
           <t>3483142660</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:13:37</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44086.50945601852</v>
       </c>
       <c r="I437" t="n">
         <v>3</v>
@@ -32273,10 +31417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:13:32</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44086.50939814815</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32356,10 +31498,8 @@
           <t>3483151911</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:13:18</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44086.50923611111</v>
       </c>
       <c r="I439" t="n">
         <v>1</v>
@@ -32435,10 +31575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:13:16</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44086.50921296296</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32502,10 +31640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:13:15</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44086.50920138889</v>
       </c>
       <c r="I441" t="n">
         <v>1</v>
@@ -32569,10 +31705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:13:14</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44086.50918981482</v>
       </c>
       <c r="I442" t="n">
         <v>1</v>
@@ -32636,10 +31770,8 @@
           <t>3483142212</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:13:13</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44086.50917824074</v>
       </c>
       <c r="I443" t="n">
         <v>2</v>
@@ -32715,10 +31847,8 @@
           <t>3483151806</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:13:13</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44086.50917824074</v>
       </c>
       <c r="I444" t="n">
         <v>2</v>
@@ -32790,10 +31920,8 @@
           <t>3483142738</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:13:11</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44086.50915509259</v>
       </c>
       <c r="I445" t="n">
         <v>2</v>
@@ -32857,10 +31985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:13:09</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44086.50913194445</v>
       </c>
       <c r="I446" t="n">
         <v>1</v>
@@ -32932,10 +32058,8 @@
           <t>3483142660</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:13:08</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44086.50912037037</v>
       </c>
       <c r="I447" t="n">
         <v>83</v>
@@ -33007,10 +32131,8 @@
           <t>3483146953</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:58</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44086.50900462963</v>
       </c>
       <c r="I448" t="n">
         <v>4</v>
@@ -33091,10 +32213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:56</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44086.50898148148</v>
       </c>
       <c r="I449" t="n">
         <v>1</v>
@@ -33162,10 +32282,8 @@
           <t>3483142212</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:46</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44086.50886574074</v>
       </c>
       <c r="I450" t="n">
         <v>30</v>
@@ -33241,10 +32359,8 @@
           <t>3483150664</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:46</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44086.50886574074</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33320,10 +32436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:38</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44086.50877314815</v>
       </c>
       <c r="I452" t="n">
         <v>1</v>
@@ -33399,10 +32513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:34</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44086.50872685185</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33474,10 +32586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:33</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44086.50871527778</v>
       </c>
       <c r="I454" t="n">
         <v>1</v>
@@ -33537,10 +32647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:31</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44086.50869212963</v>
       </c>
       <c r="I455" t="n">
         <v>1</v>
@@ -33608,10 +32716,8 @@
           <t>3483150847</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:29</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44086.50866898148</v>
       </c>
       <c r="I456" t="n">
         <v>47</v>
@@ -33687,10 +32793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:20</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44086.50856481482</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33754,10 +32858,8 @@
           <t>3483150664</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:20</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44086.50856481482</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33829,10 +32931,8 @@
           <t>3483150505</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:13</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44086.50848379629</v>
       </c>
       <c r="I459" t="n">
         <v>35</v>
@@ -33904,10 +33004,8 @@
           <t>3483145959</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:12</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44086.50847222222</v>
       </c>
       <c r="I460" t="n">
         <v>155</v>
@@ -33975,10 +33073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:07</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44086.50841435185</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34046,10 +33142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:07</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44086.50841435185</v>
       </c>
       <c r="I462" t="n">
         <v>1</v>
@@ -34113,10 +33207,8 @@
           <t>3483150349</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:06</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44086.50840277778</v>
       </c>
       <c r="I463" t="n">
         <v>19</v>
@@ -34184,10 +33276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:02</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44086.50835648148</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34263,10 +33353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:00</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44086.50833333333</v>
       </c>
       <c r="I465" t="n">
         <v>63</v>
@@ -34342,10 +33430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:50</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44086.50821759259</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34409,10 +33495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:43</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44086.50813657408</v>
       </c>
       <c r="I467" t="n">
         <v>250</v>
@@ -34480,10 +33564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:39</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44086.50809027778</v>
       </c>
       <c r="I468" t="n">
         <v>28</v>
@@ -34559,10 +33641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:36</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44086.50805555555</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34630,10 +33710,8 @@
           <t>3483139676</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:35</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44086.50804398148</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34705,10 +33783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:32</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44086.50800925926</v>
       </c>
       <c r="I471" t="n">
         <v>18</v>
@@ -34780,10 +33856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:30</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44086.50798611111</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34847,10 +33921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:29</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44086.50797453704</v>
       </c>
       <c r="I473" t="n">
         <v>101</v>
@@ -34926,10 +33998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:23</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44086.50790509259</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -34997,10 +34067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:19</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44086.5078587963</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35076,10 +34144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:18</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44086.50784722222</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35146,10 +34212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:12</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44086.50777777778</v>
       </c>
       <c r="I477" t="n">
         <v>743</v>
@@ -35225,10 +34289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:08</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44086.50773148148</v>
       </c>
       <c r="I478" t="n">
         <v>1085</v>
@@ -35304,10 +34366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:05</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44086.50769675926</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35375,10 +34435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:05</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44086.50769675926</v>
       </c>
       <c r="I480" t="n">
         <v>151</v>
@@ -35446,10 +34504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:04</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44086.50768518518</v>
       </c>
       <c r="I481" t="n">
         <v>1</v>
@@ -35525,10 +34581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:00</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44086.50763888889</v>
       </c>
       <c r="I482" t="n">
         <v>2</v>
@@ -35604,10 +34658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:58</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44086.50761574074</v>
       </c>
       <c r="I483" t="n">
         <v>1</v>
@@ -35679,10 +34731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:57</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44086.50760416667</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35751,10 +34801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:53</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44086.50755787037</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35818,10 +34866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:53</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44086.50755787037</v>
       </c>
       <c r="I486" t="n">
         <v>1</v>
@@ -35885,10 +34931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:53</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44086.50755787037</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -35956,10 +35000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:53</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44086.50755787037</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36027,10 +35069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:51</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44086.50753472222</v>
       </c>
       <c r="I489" t="n">
         <v>1</v>
@@ -36106,10 +35146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:48</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44086.5075</v>
       </c>
       <c r="I490" t="n">
         <v>1</v>
@@ -36177,10 +35215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:48</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44086.5075</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36256,10 +35292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:46</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44086.50747685185</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -36319,10 +35353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:44</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44086.50745370371</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36386,10 +35418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:44</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44086.50745370371</v>
       </c>
       <c r="I494" t="n">
         <v>1</v>
@@ -36453,10 +35483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:43</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44086.50744212963</v>
       </c>
       <c r="I495" t="n">
         <v>1</v>
@@ -36516,10 +35544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:43</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44086.50744212963</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36583,10 +35609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:41</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44086.50741898148</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36658,10 +35682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:41</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44086.50741898148</v>
       </c>
       <c r="I498" t="n">
         <v>478</v>
@@ -36737,10 +35759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:40</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44086.50740740741</v>
       </c>
       <c r="I499" t="n">
         <v>1</v>
@@ -36816,10 +35836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:38</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44086.50738425926</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36889,10 +35907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:36</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44086.50736111111</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36970,10 +35986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:35</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44086.50734953704</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -37045,10 +36059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:34</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44086.50733796296</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -37112,10 +36124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:33</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44086.50732638889</v>
       </c>
       <c r="I504" t="n">
         <v>1</v>
@@ -37179,10 +36189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:22</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44086.50719907408</v>
       </c>
       <c r="I505" t="n">
         <v>2</v>
@@ -37258,10 +36266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:20</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44086.50717592592</v>
       </c>
       <c r="I506" t="n">
         <v>1</v>
@@ -37329,10 +36335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:18</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44086.50715277778</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37408,10 +36412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:18</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44086.50715277778</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37483,10 +36485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:17</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44086.50714120371</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37558,10 +36558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:16</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44086.50712962963</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
